--- a/Tier 2 Output.xlsx
+++ b/Tier 2 Output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28000" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tier 2" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -109,7 +109,6161 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.122130753263685"/>
+          <c:y val="0.126968747568902"/>
+          <c:w val="0.805642667215618"/>
+          <c:h val="0.787874346453724"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IBS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999820392382743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999649532827998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.99948199888635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.999399407682508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Propellent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999570192926152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999162602111227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.998767650204358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.998382781767946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EBT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999919081600879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999839866572886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.999762810270918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.999686704870979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EDDE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999983162158188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999977904958035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.999977904958035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.999977904958035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2144217320"/>
+        <c:axId val="2144177400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2144217320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.492393383937854"/>
+              <c:y val="0.018958033458322"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2144177400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144177400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>ROI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2144217320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.215790849673203"/>
+          <c:y val="0.215927129117747"/>
+          <c:w val="0.153402491903103"/>
+          <c:h val="0.241286471256996"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.139322727285897"/>
+          <c:y val="0.0496116202290211"/>
+          <c:w val="0.805642667215618"/>
+          <c:h val="0.810539568245462"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IBS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00452488687782804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00451931904169311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00451402239549601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0045088288433049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00450626851598581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Propellent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00452488687782804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00451199266561263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00449976494116487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00448791638395881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00447637033086644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EBT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00452488687782804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00452254024425356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00452024300844177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00451800837568468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00451580131908645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EDDE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00452488687782804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00452444909394094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00452431240673698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00452431240673698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00452431240673698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2036609400"/>
+        <c:axId val="2142988136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2036609400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.520111748838907"/>
+              <c:y val="0.932973032502056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2142988136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2142988136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="-25000"/>
+                  <a:t>ADR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00737764617029709"/>
+              <c:y val="0.472435034348141"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2036609400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.183502104971921"/>
+          <c:y val="0.342911240617942"/>
+          <c:w val="0.158480531813865"/>
+          <c:h val="0.239845112062808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.122130753263685"/>
+          <c:y val="0.126968747568902"/>
+          <c:w val="0.805642667215618"/>
+          <c:h val="0.787874346453724"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IBS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$14:$GT$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$15:$GT$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999819572648566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999645950308625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.99947560111598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.999391387434611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.999224557489554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.999059013575082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.998977142435275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.998814118442682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.998652087289683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.998491614257673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.998411685606244</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.99825325916345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.998095579735516</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.998016892886459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.997860096815706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.99770392338619</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.997548197495824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.99747057332335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.997315802325438</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.99716146653374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.997084324541146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.996930172139859</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.996776704129165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.996624012410109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.996547817954536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.996395619487768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.996244672795125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.996169493242715</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.996019374046707</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.995869839516392</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.995720981341283</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.995646883920147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.995498991277807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.995351433928574</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.995277929121356</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.995131488880007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.99498561735837</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.994912954376952</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.994767888438645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.994623036035169</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.994478446477671</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.994406225753627</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.994262126676396</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.994118293749441</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.994046510084326</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.993903337568078</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.993760441931263</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.993617722055504</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.993546412680415</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.99340392626828</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.993261711070192</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.993190837777443</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.993049246957836</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.992907899779639</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.992766735815148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.992696274225379</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.992555676315488</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.992415384404965</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.992345275577205</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.992205237100923</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.992065398045459</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.991925855656051</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.991856255323562</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.99171726656111</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.991578565866768</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.99150925631318</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.991370781336465</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.99123258970176</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.991163640955337</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.991025838873862</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.99088813398837</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.99075068080015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.990682098892708</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.99054512547475</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.990408564077089</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.990340427540888</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.990204283083305</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.990068389284655</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.989932822978911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.989865226511498</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.989730101703676</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.989595123971244</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.989527678510772</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.989392969111232</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.989258751181801</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.989124868825788</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.989058030153112</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.988924650920706</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.988791598319822</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.988725166717175</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.988592431846854</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.988459822173605</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.988327358255602</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.988261343123793</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.988129578675612</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.987998057015153</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.987932335683592</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.987800919439692</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.987669590858108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.987603993197745</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.987472913545</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.987342207561588</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.987211593829765</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.987146380452249</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.987016169655825</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.986886460353512</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.986821702814289</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.986692440183148</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.986563427975352</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.986434614295695</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.986370322813407</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.986242154231395</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.986114294643089</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.986050414657595</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.985922811420974</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.985795450026213</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.985668178581701</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.985604578604531</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.985477536038146</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.985350694127963</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.985287343754196</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.985160739982339</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.985034471659822</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.984908768405871</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.984846078385413</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.984720747586444</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.98459550084427</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.984532927003562</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.984407874517721</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.984283030885688</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.984158424612265</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.98409616545519</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.983971906617329</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.983847728859064</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.983785738239156</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.983661836522178</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.983538193575557</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.983476470196349</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.983353092074638</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.983230087989773</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.983107217223101</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.983045906285392</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.982923508511279</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.982801252278177</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.982740194544779</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.982618297268735</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.982496578321337</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.982375073752545</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.98231444242126</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.982193370295726</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.982072473144206</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.982012148346756</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.981891730718699</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.981771441282204</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.981651409946579</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.981591460703201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.981471685667486</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.981352120998363</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.981292350873824</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.981173009740559</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.981053918297664</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.980934982215174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.980875606172079</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.980756912668652</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.980638543085334</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.980579441090247</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.980461347133109</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.980343435687504</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.980284548236889</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.980166977746911</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.980049701530813</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.979932557800335</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.97987409145946</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.979757274934245</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.979640723180485</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.979582474333761</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.979466117203322</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.979349987714283</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.979234063694596</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.979176152279221</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.979060620662333</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.978945427362743</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.978887970205621</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.978773145145912</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.978658522242139</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.978544011153916</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.978486809642738</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.978372482682646</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.978258252678051</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.978201215804748</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.978087248669985</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.977973476009014</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.977859977844306</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.977803258533897</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.977690053222494</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.977577190997095</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.977520871892192</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.977408310678004</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.977296331450217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Propellent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$14:$GT$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$16:$GT$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999580666495713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.99917949370958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.998782818871742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.998393650516333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.998012592259953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.99763781113529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.997266344619282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.996898732797682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.99653571913878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.996176271966185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.995818497679248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.995462560108746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.995110157552243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.994760805535801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.994415063120551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.994072523397026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.993732390924453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.993395666239295</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.993062558186256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.992732805267931</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.992405199812115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.992080052015934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.99175669055834</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.991435168017396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.991115639794094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.990798436268946</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.990482972804931</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.99016998571962</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.989859193224238</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.98955055589064</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.989244500891759</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.988940576346698</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.988638714266876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.988338788728552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.988041616499007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.987745706300251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.987450995593171</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.98715843346415</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.986868002620384</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.986580313747296</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.986294928497362</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.986011323559221</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.985729717740988</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.985450321084182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.98517266619376</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.984896570335234</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.984622382865738</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.984350376863993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.98408046652264</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.983811875866483</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.983544371578359</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.983278461707587</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.98301430600806</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.982752773281012</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.982493071477594</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.982234730515465</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.981978538375694</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.981724093454837</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.981470711878367</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.981219146904639</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.980969001240256</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.980720922498314</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.980474262826057</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.980228984910675</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.979985003289031</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.979742450392512</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.979501444017</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.979262262597964</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.979024630314124</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.978788741273049</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.9785544376436</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.978321901529292</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.978090999439818</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.977862366294582</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.977635568815351</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.977411419988412</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.977188771010915</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.976967439612333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.976748337050781</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.976530674368363</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.976314334280163</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.976099098270203</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.975885211142988</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.975672652493417</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.975461720830889</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.975252622869696</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.975045157983713</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.974839119966861</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.974634479069989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.974431324673149</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.974230477486703</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.974032080935933</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.973836172728808</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.973643048782228</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.973451913844218</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.973263777208668</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.973078557847596</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.972894687835914</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.972712279658182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.972531050978255</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.972351480286246</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.972174398728157</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.97199830532595</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.971824211465983</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.971651127547433</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.971478890305891</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.971308157987138</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.971138500940646</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.970970162446495</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.970802917433925</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.970636986272767</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.970472742104231</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.970309960084063</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.97014830310505</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.969988355405281</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.969830108676721</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.969672604031357</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.969515967934207</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.969361372202183</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.969208865872525</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.969058427204206</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.968910064737732</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.968763312806523</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.968617892080518</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.968473655929955</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.968330506993913</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.968188515394677</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.968047685154359</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.967908252624542</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.9677710539193</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.967636203473103</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.967504351649485</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.967374440612316</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.96724602344468</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.967118888988235</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.966992853945027</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.966868478790324</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.966745773704039</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.966624376591428</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.966504149828757</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.966386609596337</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.966270881087051</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.966156759097061</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.966043916826493</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.965932808333805</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.965823082586899</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.965715485007197</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.965610293713088</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.965506788730309</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.965405037717433</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.965304675629324</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.965206287867151</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.965109546526534</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.965013953527723</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.964919956634933</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.964826914918788</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.964735777469694</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.964647109747091</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.964563591399045</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.964485882754339</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.96444053039964</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.964403579549927</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.964367814442079</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.964332894832157</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.964298582612384</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.96426484716218</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.964231645043851</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.964199236576232</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.96416751016566</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.964136270283203</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.964105524277618</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.964075180853178</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.964045258043958</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.964015806348976</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.963986774607243</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.963958183362261</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.963930019304836</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.963902315522464</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.963874912968819</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.963847817747284</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.963820998306105</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.963794378766848</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.963768068592648</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.963742064960053</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.963716269246313</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.963690873654367</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.96366583985697</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.963640953626873</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.963616240419231</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.963591757505624</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.963567623265143</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.963543803020816</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.963520091649147</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.963496571911133</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.963473320474465</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.963450284047632</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.963427571263038</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.963405078994283</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.96338284216377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EBT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$14:$GT$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$17:$GT$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999918491783367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999839363601322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.999762437334209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.99968594031857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.999609663739112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.999533433307608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.999457688406693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.999382162467324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.999307040554136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.999232060067876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.999157200738377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.999082519483691</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.999008029859541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.998933770641665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.998860164895775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.998786919310058</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.998714108936807</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.998641385579538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.998568957587294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.998496699294541</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.998424443991847</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.998352255554663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.998280158683125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.998208438970102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.998136990733793</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.998065888211954</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.997994997252102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.997924133043999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.997853495894082</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.997783047021865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.997712639330435</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.997642359938496</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.997572129619495</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.997501954120398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.997431867413088</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.997361806988812</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.997291929117727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.997222221725934</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.997152659698943</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.997083264645666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.997014168731031</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.996945254483074</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.996876445889382</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.996807848027655</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.996739382319793</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.996671103304814</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.996602904574333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.996535070905437</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.996467351540375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.996399680994199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.996332130843809</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.996264937532798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.996197971032493</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.996131049521527</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.99606416104084</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.995997288871738</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.995930563391048</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.995864033862796</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.995797567842921</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.995731163374206</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.995664794338662</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.995598528503589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.995532340576658</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.995466245297997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.995400170530271</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.995334192784799</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.995268255674136</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.995202435627269</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.995136630976184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.995070931954419</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.995005289775821</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.994939810638419</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.994874380225263</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.994809020803002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.994743707342169</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.99467851210643</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.994613425064842</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.994548385935077</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.994483496070198</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.994418761788771</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.994354102707107</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.994289586959386</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.994225130468163</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.99416078832289</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.994096466912972</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.994032287845894</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.993968141980345</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.993904058306389</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.993840043223536</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.993776128509374</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.993712350329022</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.993648624829945</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.993585003070306</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.993521519542762</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.993458054481978</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.993394734861752</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.993331477062676</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.993268299067927</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.993205158320956</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.993142040109695</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.993079036402661</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.993016096902852</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.992953443745495</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.992890887347458</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.992828388845143</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.992765931719463</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.992703628452069</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.992641362443502</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.992579187365252</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.99251707213763</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.99245507007603</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.992393148632956</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.992331320247973</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.992269727631817</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.992208182582894</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.992146647953727</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.992085147026034</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.992023768319939</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.991962416064843</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.991901108753241</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.991839852575412</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.991778615263321</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.991717414746828</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.991656239046618</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.991595070605727</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.991533995195553</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.991472940765445</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.991412012143026</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.991351134083511</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.991290314829697</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.991229512471352</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.991168825609099</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.991108186847008</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.991047641372373</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.990987249107722</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.990926923177579</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.990866721845957</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.990806563095826</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.990746542139649</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.990686718974164</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.990626936145111</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.990567303514882</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.9905077197403</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.990448160772806</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.990388791068862</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.990329443098866</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.990270151481588</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.990210930531112</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.990151826111864</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.990092753797099</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.99003374616243</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.989974853935052</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.989916076624356</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.989857315417</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.989798703311866</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.989740253672074</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.989681831690445</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.989623432374967</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.989565118601597</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.989506868060183</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.989448712975016</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.989390566538487</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.989332499710677</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.989274478684845</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.989216558645339</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.989158677203945</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.989100861799624</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.989043116570431</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.988985423948666</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.988927755038797</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.988870175561117</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.988812673574969</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.988755217255658</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.988697773125577</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.988640353477581</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.988582963703222</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.988525647687112</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.98846834604762</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.988411083551442</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.988353897559644</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.988296763211062</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.98823965383232</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.988182608929538</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.988125590540908</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.988068725743656</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.988011945752204</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.987955183315269</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.9878984902765</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.987841813128495</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.987785149098416</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.987728596610567</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.987672075731821</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.987615601472009</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.987559206740178</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.987502876303667</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.987446635633099</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.987390508993275</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.987334645086497</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.987278884825864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>EDDE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$14:$GT$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tier 2'!$C$18:$GT$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.999982988496823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.999977229523189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.999977205547811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2142726408"/>
+        <c:axId val="2142786472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2142726408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.463078448527267"/>
+              <c:y val="0.010468446265138"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2142786472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2142786472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>ROI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2142726408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.215790849673203"/>
+          <c:y val="0.215927129117747"/>
+          <c:w val="0.158480531813865"/>
+          <c:h val="0.239845112062808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137885</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429985</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>814387</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>187780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>162832</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,22 +6591,22 @@
   <dimension ref="A1:GT22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:202">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:202">
       <c r="C2">
@@ -472,7 +6626,7 @@
       </c>
     </row>
     <row r="3" spans="1:202">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -495,7 +6649,7 @@
       </c>
     </row>
     <row r="4" spans="1:202">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -516,7 +6670,7 @@
       </c>
     </row>
     <row r="5" spans="1:202">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -537,7 +6691,7 @@
       </c>
     </row>
     <row r="6" spans="1:202">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -558,7 +6712,7 @@
       </c>
     </row>
     <row r="7" spans="1:202">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -581,7 +6735,7 @@
       </c>
     </row>
     <row r="8" spans="1:202">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -602,7 +6756,7 @@
       </c>
     </row>
     <row r="9" spans="1:202">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -623,7 +6777,7 @@
       </c>
     </row>
     <row r="10" spans="1:202">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -644,13 +6798,13 @@
       </c>
     </row>
     <row r="13" spans="1:202">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:202">
       <c r="C14">
@@ -668,9 +6822,594 @@
       <c r="G14">
         <v>5</v>
       </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
+      <c r="S14">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <v>19</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <v>21</v>
+      </c>
+      <c r="X14">
+        <v>22</v>
+      </c>
+      <c r="Y14">
+        <v>23</v>
+      </c>
+      <c r="Z14">
+        <v>24</v>
+      </c>
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>26</v>
+      </c>
+      <c r="AC14">
+        <v>27</v>
+      </c>
+      <c r="AD14">
+        <v>28</v>
+      </c>
+      <c r="AE14">
+        <v>29</v>
+      </c>
+      <c r="AF14">
+        <v>30</v>
+      </c>
+      <c r="AG14">
+        <v>31</v>
+      </c>
+      <c r="AH14">
+        <v>32</v>
+      </c>
+      <c r="AI14">
+        <v>33</v>
+      </c>
+      <c r="AJ14">
+        <v>34</v>
+      </c>
+      <c r="AK14">
+        <v>35</v>
+      </c>
+      <c r="AL14">
+        <v>36</v>
+      </c>
+      <c r="AM14">
+        <v>37</v>
+      </c>
+      <c r="AN14">
+        <v>38</v>
+      </c>
+      <c r="AO14">
+        <v>39</v>
+      </c>
+      <c r="AP14">
+        <v>40</v>
+      </c>
+      <c r="AQ14">
+        <v>41</v>
+      </c>
+      <c r="AR14">
+        <v>42</v>
+      </c>
+      <c r="AS14">
+        <v>43</v>
+      </c>
+      <c r="AT14">
+        <v>44</v>
+      </c>
+      <c r="AU14">
+        <v>45</v>
+      </c>
+      <c r="AV14">
+        <v>46</v>
+      </c>
+      <c r="AW14">
+        <v>47</v>
+      </c>
+      <c r="AX14">
+        <v>48</v>
+      </c>
+      <c r="AY14">
+        <v>49</v>
+      </c>
+      <c r="AZ14">
+        <v>50</v>
+      </c>
+      <c r="BA14">
+        <v>51</v>
+      </c>
+      <c r="BB14">
+        <v>52</v>
+      </c>
+      <c r="BC14">
+        <v>53</v>
+      </c>
+      <c r="BD14">
+        <v>54</v>
+      </c>
+      <c r="BE14">
+        <v>55</v>
+      </c>
+      <c r="BF14">
+        <v>56</v>
+      </c>
+      <c r="BG14">
+        <v>57</v>
+      </c>
+      <c r="BH14">
+        <v>58</v>
+      </c>
+      <c r="BI14">
+        <v>59</v>
+      </c>
+      <c r="BJ14">
+        <v>60</v>
+      </c>
+      <c r="BK14">
+        <v>61</v>
+      </c>
+      <c r="BL14">
+        <v>62</v>
+      </c>
+      <c r="BM14">
+        <v>63</v>
+      </c>
+      <c r="BN14">
+        <v>64</v>
+      </c>
+      <c r="BO14">
+        <v>65</v>
+      </c>
+      <c r="BP14">
+        <v>66</v>
+      </c>
+      <c r="BQ14">
+        <v>67</v>
+      </c>
+      <c r="BR14">
+        <v>68</v>
+      </c>
+      <c r="BS14">
+        <v>69</v>
+      </c>
+      <c r="BT14">
+        <v>70</v>
+      </c>
+      <c r="BU14">
+        <v>71</v>
+      </c>
+      <c r="BV14">
+        <v>72</v>
+      </c>
+      <c r="BW14">
+        <v>73</v>
+      </c>
+      <c r="BX14">
+        <v>74</v>
+      </c>
+      <c r="BY14">
+        <v>75</v>
+      </c>
+      <c r="BZ14">
+        <v>76</v>
+      </c>
+      <c r="CA14">
+        <v>77</v>
+      </c>
+      <c r="CB14">
+        <v>78</v>
+      </c>
+      <c r="CC14">
+        <v>79</v>
+      </c>
+      <c r="CD14">
+        <v>80</v>
+      </c>
+      <c r="CE14">
+        <v>81</v>
+      </c>
+      <c r="CF14">
+        <v>82</v>
+      </c>
+      <c r="CG14">
+        <v>83</v>
+      </c>
+      <c r="CH14">
+        <v>84</v>
+      </c>
+      <c r="CI14">
+        <v>85</v>
+      </c>
+      <c r="CJ14">
+        <v>86</v>
+      </c>
+      <c r="CK14">
+        <v>87</v>
+      </c>
+      <c r="CL14">
+        <v>88</v>
+      </c>
+      <c r="CM14">
+        <v>89</v>
+      </c>
+      <c r="CN14">
+        <v>90</v>
+      </c>
+      <c r="CO14">
+        <v>91</v>
+      </c>
+      <c r="CP14">
+        <v>92</v>
+      </c>
+      <c r="CQ14">
+        <v>93</v>
+      </c>
+      <c r="CR14">
+        <v>94</v>
+      </c>
+      <c r="CS14">
+        <v>95</v>
+      </c>
+      <c r="CT14">
+        <v>96</v>
+      </c>
+      <c r="CU14">
+        <v>97</v>
+      </c>
+      <c r="CV14">
+        <v>98</v>
+      </c>
+      <c r="CW14">
+        <v>99</v>
+      </c>
+      <c r="CX14">
+        <v>100</v>
+      </c>
+      <c r="CY14">
+        <v>101</v>
+      </c>
+      <c r="CZ14">
+        <v>102</v>
+      </c>
+      <c r="DA14">
+        <v>103</v>
+      </c>
+      <c r="DB14">
+        <v>104</v>
+      </c>
+      <c r="DC14">
+        <v>105</v>
+      </c>
+      <c r="DD14">
+        <v>106</v>
+      </c>
+      <c r="DE14">
+        <v>107</v>
+      </c>
+      <c r="DF14">
+        <v>108</v>
+      </c>
+      <c r="DG14">
+        <v>109</v>
+      </c>
+      <c r="DH14">
+        <v>110</v>
+      </c>
+      <c r="DI14">
+        <v>111</v>
+      </c>
+      <c r="DJ14">
+        <v>112</v>
+      </c>
+      <c r="DK14">
+        <v>113</v>
+      </c>
+      <c r="DL14">
+        <v>114</v>
+      </c>
+      <c r="DM14">
+        <v>115</v>
+      </c>
+      <c r="DN14">
+        <v>116</v>
+      </c>
+      <c r="DO14">
+        <v>117</v>
+      </c>
+      <c r="DP14">
+        <v>118</v>
+      </c>
+      <c r="DQ14">
+        <v>119</v>
+      </c>
+      <c r="DR14">
+        <v>120</v>
+      </c>
+      <c r="DS14">
+        <v>121</v>
+      </c>
+      <c r="DT14">
+        <v>122</v>
+      </c>
+      <c r="DU14">
+        <v>123</v>
+      </c>
+      <c r="DV14">
+        <v>124</v>
+      </c>
+      <c r="DW14">
+        <v>125</v>
+      </c>
+      <c r="DX14">
+        <v>126</v>
+      </c>
+      <c r="DY14">
+        <v>127</v>
+      </c>
+      <c r="DZ14">
+        <v>128</v>
+      </c>
+      <c r="EA14">
+        <v>129</v>
+      </c>
+      <c r="EB14">
+        <v>130</v>
+      </c>
+      <c r="EC14">
+        <v>131</v>
+      </c>
+      <c r="ED14">
+        <v>132</v>
+      </c>
+      <c r="EE14">
+        <v>133</v>
+      </c>
+      <c r="EF14">
+        <v>134</v>
+      </c>
+      <c r="EG14">
+        <v>135</v>
+      </c>
+      <c r="EH14">
+        <v>136</v>
+      </c>
+      <c r="EI14">
+        <v>137</v>
+      </c>
+      <c r="EJ14">
+        <v>138</v>
+      </c>
+      <c r="EK14">
+        <v>139</v>
+      </c>
+      <c r="EL14">
+        <v>140</v>
+      </c>
+      <c r="EM14">
+        <v>141</v>
+      </c>
+      <c r="EN14">
+        <v>142</v>
+      </c>
+      <c r="EO14">
+        <v>143</v>
+      </c>
+      <c r="EP14">
+        <v>144</v>
+      </c>
+      <c r="EQ14">
+        <v>145</v>
+      </c>
+      <c r="ER14">
+        <v>146</v>
+      </c>
+      <c r="ES14">
+        <v>147</v>
+      </c>
+      <c r="ET14">
+        <v>148</v>
+      </c>
+      <c r="EU14">
+        <v>149</v>
+      </c>
+      <c r="EV14">
+        <v>150</v>
+      </c>
+      <c r="EW14">
+        <v>151</v>
+      </c>
+      <c r="EX14">
+        <v>152</v>
+      </c>
+      <c r="EY14">
+        <v>153</v>
+      </c>
+      <c r="EZ14">
+        <v>154</v>
+      </c>
+      <c r="FA14">
+        <v>155</v>
+      </c>
+      <c r="FB14">
+        <v>156</v>
+      </c>
+      <c r="FC14">
+        <v>157</v>
+      </c>
+      <c r="FD14">
+        <v>158</v>
+      </c>
+      <c r="FE14">
+        <v>159</v>
+      </c>
+      <c r="FF14">
+        <v>160</v>
+      </c>
+      <c r="FG14">
+        <v>161</v>
+      </c>
+      <c r="FH14">
+        <v>162</v>
+      </c>
+      <c r="FI14">
+        <v>163</v>
+      </c>
+      <c r="FJ14">
+        <v>164</v>
+      </c>
+      <c r="FK14">
+        <v>165</v>
+      </c>
+      <c r="FL14">
+        <v>166</v>
+      </c>
+      <c r="FM14">
+        <v>167</v>
+      </c>
+      <c r="FN14">
+        <v>168</v>
+      </c>
+      <c r="FO14">
+        <v>169</v>
+      </c>
+      <c r="FP14">
+        <v>170</v>
+      </c>
+      <c r="FQ14">
+        <v>171</v>
+      </c>
+      <c r="FR14">
+        <v>172</v>
+      </c>
+      <c r="FS14">
+        <v>173</v>
+      </c>
+      <c r="FT14">
+        <v>174</v>
+      </c>
+      <c r="FU14">
+        <v>175</v>
+      </c>
+      <c r="FV14">
+        <v>176</v>
+      </c>
+      <c r="FW14">
+        <v>177</v>
+      </c>
+      <c r="FX14">
+        <v>178</v>
+      </c>
+      <c r="FY14">
+        <v>179</v>
+      </c>
+      <c r="FZ14">
+        <v>180</v>
+      </c>
+      <c r="GA14">
+        <v>181</v>
+      </c>
+      <c r="GB14">
+        <v>182</v>
+      </c>
+      <c r="GC14">
+        <v>183</v>
+      </c>
+      <c r="GD14">
+        <v>184</v>
+      </c>
+      <c r="GE14">
+        <v>185</v>
+      </c>
+      <c r="GF14">
+        <v>186</v>
+      </c>
+      <c r="GG14">
+        <v>187</v>
+      </c>
+      <c r="GH14">
+        <v>188</v>
+      </c>
+      <c r="GI14">
+        <v>189</v>
+      </c>
+      <c r="GJ14">
+        <v>190</v>
+      </c>
+      <c r="GK14">
+        <v>191</v>
+      </c>
+      <c r="GL14">
+        <v>192</v>
+      </c>
+      <c r="GM14">
+        <v>193</v>
+      </c>
+      <c r="GN14">
+        <v>194</v>
+      </c>
+      <c r="GO14">
+        <v>195</v>
+      </c>
+      <c r="GP14">
+        <v>196</v>
+      </c>
+      <c r="GQ14">
+        <v>197</v>
+      </c>
+      <c r="GR14">
+        <v>198</v>
+      </c>
+      <c r="GS14">
+        <v>199</v>
+      </c>
+      <c r="GT14">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:202">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -1278,7 +8017,7 @@
       </c>
     </row>
     <row r="16" spans="1:202">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +8623,7 @@
       </c>
     </row>
     <row r="17" spans="1:202">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -2490,7 +9229,7 @@
       </c>
     </row>
     <row r="18" spans="1:202">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -3096,7 +9835,7 @@
       </c>
     </row>
     <row r="19" spans="1:202">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
@@ -3704,7 +10443,7 @@
       </c>
     </row>
     <row r="20" spans="1:202">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +11049,7 @@
       </c>
     </row>
     <row r="21" spans="1:202">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -4916,7 +11655,7 @@
       </c>
     </row>
     <row r="22" spans="1:202">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -5523,15 +12262,16 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
